--- a/tests/test_files/aaa_move_range.xlsx
+++ b/tests/test_files/aaa_move_range.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26626"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10719"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4642C487-2FCB-4747-ADEC-43B3428BDB1E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{282A09EC-E2EB-784F-B8A4-81A67D6F1A42}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="16320" yWindow="690" windowWidth="11865" windowHeight="14175" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="16320" yWindow="760" windowWidth="11860" windowHeight="14180" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="39">
   <si>
     <t>AA1</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -134,6 +134,12 @@
   </si>
   <si>
     <t>BB21</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Previous </t>
+  </si>
+  <si>
+    <t>Should disappear</t>
   </si>
 </sst>
 </file>
@@ -144,14 +150,14 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="ＭＳ Ｐゴシック"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -159,7 +165,7 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="ＭＳ Ｐゴシック"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -168,7 +174,7 @@
       <i/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -235,7 +241,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="標準" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -537,13 +543,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="C5:H24"/>
+  <dimension ref="A5:H24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="5" spans="3:8" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C5" t="s">
         <v>0</v>
       </c>
@@ -554,7 +562,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="6" spans="3:8" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C6" t="s">
         <v>1</v>
       </c>
@@ -565,7 +573,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="7" spans="3:8" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
@@ -576,7 +584,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="8" spans="3:8" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C8" t="s">
         <v>3</v>
       </c>
@@ -587,7 +595,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="9" spans="3:8" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C9" t="s">
         <v>4</v>
       </c>
@@ -598,7 +606,15 @@
         <v>24</v>
       </c>
     </row>
-    <row r="15" spans="3:8" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>37</v>
+      </c>
+      <c r="B14" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="F15" t="s">
         <v>10</v>
       </c>
@@ -609,7 +625,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="16" spans="3:8" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="F16" t="s">
         <v>11</v>
       </c>
@@ -620,7 +636,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="17" spans="6:8" x14ac:dyDescent="0.15">
+    <row r="17" spans="6:8" x14ac:dyDescent="0.2">
       <c r="F17" t="s">
         <v>12</v>
       </c>
@@ -631,7 +647,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="18" spans="6:8" x14ac:dyDescent="0.15">
+    <row r="18" spans="6:8" x14ac:dyDescent="0.2">
       <c r="F18" s="1" t="s">
         <v>13</v>
       </c>
@@ -642,7 +658,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="19" spans="6:8" x14ac:dyDescent="0.15">
+    <row r="19" spans="6:8" x14ac:dyDescent="0.2">
       <c r="F19" s="1" t="s">
         <v>14</v>
       </c>
@@ -653,7 +669,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="20" spans="6:8" x14ac:dyDescent="0.15">
+    <row r="20" spans="6:8" x14ac:dyDescent="0.2">
       <c r="F20" s="1" t="s">
         <v>15</v>
       </c>
@@ -664,7 +680,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="21" spans="6:8" x14ac:dyDescent="0.15">
+    <row r="21" spans="6:8" x14ac:dyDescent="0.2">
       <c r="F21" s="1" t="s">
         <v>16</v>
       </c>
@@ -675,7 +691,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="22" spans="6:8" x14ac:dyDescent="0.15">
+    <row r="22" spans="6:8" x14ac:dyDescent="0.2">
       <c r="F22" t="s">
         <v>17</v>
       </c>
@@ -686,7 +702,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="23" spans="6:8" x14ac:dyDescent="0.15">
+    <row r="23" spans="6:8" x14ac:dyDescent="0.2">
       <c r="F23" t="s">
         <v>18</v>
       </c>
@@ -697,7 +713,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="24" spans="6:8" x14ac:dyDescent="0.15">
+    <row r="24" spans="6:8" x14ac:dyDescent="0.2">
       <c r="F24" t="s">
         <v>19</v>
       </c>
@@ -721,7 +737,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -735,7 +751,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
